--- a/black_metals/data/up-stream/铁矿石/铁矿石库存.xlsx
+++ b/black_metals/data/up-stream/铁矿石/铁矿石库存.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\铁矿石\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\futures_nexus\black_metals\data\up-stream\铁矿石\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159BA4C-7721-4A27-80B6-DB0B4B3677C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D54E72-486D-4E02-A8EE-FA4260605FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{DAEB2C52-89BB-4A22-9365-E0AADAA85117}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AD826979-D66A-49FC-822B-8B3DE182ED37}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4F27B30E-305D-4411-B734-5B5D9F572D62}">
       <text>
         <r>
           <rPr>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9253B05-7F3E-4C16-BF69-04F9163F86A1}">
   <dimension ref="A1:I1556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1525" workbookViewId="0">
-      <selection activeCell="A1556" sqref="A1556"/>
+    <sheetView tabSelected="1" topLeftCell="A1522" workbookViewId="0">
+      <selection activeCell="I1556" sqref="I1556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
